--- a/Documento De Especificação Suplementar.xlsx
+++ b/Documento De Especificação Suplementar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="987" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="987"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela de Atributos" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,6 +466,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,24 +495,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,7 +584,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -622,7 +622,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -694,7 +694,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -846,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -868,17 +868,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
@@ -914,10 +914,10 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="30"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1052,10 +1052,10 @@
       <c r="I6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="31"/>
+      <c r="L6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -1102,7 +1102,7 @@
       <c r="C8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -1137,7 +1137,7 @@
       <c r="C9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="24" t="s">
@@ -1235,7 +1235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1249,18 +1249,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1287,10 +1287,10 @@
       <c r="F2" s="15">
         <v>5</v>
       </c>
-      <c r="G2" s="38">
+      <c r="G2" s="34">
         <v>6</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="33">
         <v>7</v>
       </c>
       <c r="I2" s="16">
@@ -1299,10 +1299,10 @@
       <c r="J2" s="16">
         <v>9</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="30"/>
+      <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
@@ -1423,10 +1423,10 @@
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="31"/>
+      <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
@@ -1459,7 +1459,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="32">
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="33">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1513,10 +1513,10 @@
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="32"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
